--- a/data/cepea-consulta-dolar.reparado.xlsx
+++ b/data/cepea-consulta-dolar.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{742B089A-B0B4-486D-8AB4-5E4201096FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{211276C6-3C56-4DB9-8CFE-3D22257852CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="543">
   <si>
     <t>Dólar | Dólar</t>
   </si>
@@ -1642,6 +1642,24 @@
   </si>
   <si>
     <t>28/08/2025</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
   </si>
 </sst>
 </file>
@@ -2093,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420:B420"/>
+      <selection activeCell="A426" sqref="A426:B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5468,6 +5486,54 @@
         <v>536</v>
       </c>
       <c r="B420" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B426" s="3" t="s">
         <v>159</v>
       </c>
     </row>

--- a/data/cepea-consulta-dolar.reparado.xlsx
+++ b/data/cepea-consulta-dolar.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4C4B0D-BB02-473E-B4DB-6A1B29BE091D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDB9005-F0BC-4C84-A284-7E9FA1302B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="554">
   <si>
     <t>Dólar | Dólar</t>
   </si>
@@ -1675,6 +1675,24 @@
   </si>
   <si>
     <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>5,31</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
   </si>
 </sst>
 </file>
@@ -2126,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J431"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:B431"/>
+      <selection activeCell="A436" sqref="A436:B436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5590,6 +5608,46 @@
       </c>
       <c r="B431" s="3" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-dolar.reparado.xlsx
+++ b/data/cepea-consulta-dolar.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDB9005-F0BC-4C84-A284-7E9FA1302B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D79A5E00-3998-4B08-8AB5-B4714364CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>

--- a/data/cepea-consulta-dolar.reparado.xlsx
+++ b/data/cepea-consulta-dolar.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D79A5E00-3998-4B08-8AB5-B4714364CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA1B6CD5-F5E9-4158-B1BB-0E5BB36ADD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
